--- a/Financials/Yearly/YGEHY_YR_FIN.xlsx
+++ b/Financials/Yearly/YGEHY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE43827-9C25-43CF-9272-29715A1B6CB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YGEHY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1216300</v>
+        <v>1241300</v>
       </c>
       <c r="E8" s="3">
-        <v>1218100</v>
+        <v>1243100</v>
       </c>
       <c r="F8" s="3">
-        <v>1449300</v>
+        <v>1479000</v>
       </c>
       <c r="G8" s="3">
-        <v>1880000</v>
+        <v>1918600</v>
       </c>
       <c r="H8" s="3">
-        <v>1951400</v>
+        <v>1991400</v>
       </c>
       <c r="I8" s="3">
-        <v>1656700</v>
+        <v>1690700</v>
       </c>
       <c r="J8" s="3">
-        <v>2134600</v>
+        <v>2178400</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1193400</v>
+        <v>1217800</v>
       </c>
       <c r="E9" s="3">
-        <v>1065300</v>
+        <v>1087100</v>
       </c>
       <c r="F9" s="3">
-        <v>1363900</v>
+        <v>1391800</v>
       </c>
       <c r="G9" s="3">
-        <v>3109000</v>
+        <v>3172700</v>
       </c>
       <c r="H9" s="3">
-        <v>1809100</v>
+        <v>1846100</v>
       </c>
       <c r="I9" s="3">
-        <v>1710400</v>
+        <v>1745400</v>
       </c>
       <c r="J9" s="3">
-        <v>1902200</v>
+        <v>1941200</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22900</v>
+        <v>23400</v>
       </c>
       <c r="E10" s="3">
-        <v>152800</v>
+        <v>156000</v>
       </c>
       <c r="F10" s="3">
-        <v>85500</v>
+        <v>87200</v>
       </c>
       <c r="G10" s="3">
-        <v>-1229000</v>
+        <v>-1254200</v>
       </c>
       <c r="H10" s="3">
-        <v>142300</v>
+        <v>145200</v>
       </c>
       <c r="I10" s="3">
-        <v>-53600</v>
+        <v>-54700</v>
       </c>
       <c r="J10" s="3">
-        <v>232400</v>
+        <v>237200</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,34 +835,34 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="E12" s="3">
-        <v>19700</v>
+        <v>20100</v>
       </c>
       <c r="F12" s="3">
-        <v>54800</v>
+        <v>55900</v>
       </c>
       <c r="G12" s="3">
-        <v>79000</v>
+        <v>80700</v>
       </c>
       <c r="H12" s="3">
-        <v>38400</v>
+        <v>39200</v>
       </c>
       <c r="I12" s="3">
-        <v>22900</v>
+        <v>23400</v>
       </c>
       <c r="J12" s="3">
-        <v>36400</v>
+        <v>37200</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,18 +889,18 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>297000</v>
+        <v>303100</v>
       </c>
       <c r="E14" s="3">
-        <v>185800</v>
+        <v>189600</v>
       </c>
       <c r="F14" s="3">
-        <v>553200</v>
+        <v>564600</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -874,41 +909,41 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>29200</v>
+        <v>29800</v>
       </c>
       <c r="J14" s="3">
-        <v>363000</v>
+        <v>370500</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E15" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="F15" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="G15" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="H15" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="I15" s="3">
-        <v>19500</v>
+        <v>19900</v>
       </c>
       <c r="J15" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1644300</v>
+        <v>1678000</v>
       </c>
       <c r="E17" s="3">
-        <v>1463200</v>
+        <v>1493100</v>
       </c>
       <c r="F17" s="3">
-        <v>2064200</v>
+        <v>2106500</v>
       </c>
       <c r="G17" s="3">
-        <v>1911300</v>
+        <v>1950500</v>
       </c>
       <c r="H17" s="3">
-        <v>2114000</v>
+        <v>2157400</v>
       </c>
       <c r="I17" s="3">
-        <v>2023700</v>
+        <v>2065200</v>
       </c>
       <c r="J17" s="3">
-        <v>2519000</v>
+        <v>2570600</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-428000</v>
+        <v>-436800</v>
       </c>
       <c r="E18" s="3">
-        <v>-245000</v>
+        <v>-250100</v>
       </c>
       <c r="F18" s="3">
-        <v>-614900</v>
+        <v>-627500</v>
       </c>
       <c r="G18" s="3">
-        <v>-31300</v>
+        <v>-31900</v>
       </c>
       <c r="H18" s="3">
-        <v>-162600</v>
+        <v>-166000</v>
       </c>
       <c r="I18" s="3">
-        <v>-367000</v>
+        <v>-374500</v>
       </c>
       <c r="J18" s="3">
-        <v>-384400</v>
+        <v>-392200</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -985,115 +1020,115 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>22800</v>
+        <v>23200</v>
       </c>
       <c r="E20" s="3">
-        <v>37700</v>
+        <v>38500</v>
       </c>
       <c r="F20" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="G20" s="3">
-        <v>-12000</v>
+        <v>-12300</v>
       </c>
       <c r="H20" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="I20" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J20" s="3">
-        <v>-18800</v>
+        <v>-19200</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-332900</v>
+        <v>-339800</v>
       </c>
       <c r="E21" s="3">
-        <v>-76500</v>
+        <v>-78200</v>
       </c>
       <c r="F21" s="3">
-        <v>-436400</v>
+        <v>-445600</v>
       </c>
       <c r="G21" s="3">
-        <v>162300</v>
+        <v>165400</v>
       </c>
       <c r="H21" s="3">
-        <v>36300</v>
+        <v>36800</v>
       </c>
       <c r="I21" s="3">
-        <v>-189200</v>
+        <v>-193300</v>
       </c>
       <c r="J21" s="3">
-        <v>-263200</v>
+        <v>-268800</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>96500</v>
+        <v>98500</v>
       </c>
       <c r="E22" s="3">
-        <v>96500</v>
+        <v>98400</v>
       </c>
       <c r="F22" s="3">
-        <v>142100</v>
+        <v>145000</v>
       </c>
       <c r="G22" s="3">
-        <v>147700</v>
+        <v>150800</v>
       </c>
       <c r="H22" s="3">
-        <v>141300</v>
+        <v>144200</v>
       </c>
       <c r="I22" s="3">
-        <v>130500</v>
+        <v>133100</v>
       </c>
       <c r="J22" s="3">
-        <v>91100</v>
+        <v>93000</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-501800</v>
+        <v>-512000</v>
       </c>
       <c r="E23" s="3">
-        <v>-303700</v>
+        <v>-310000</v>
       </c>
       <c r="F23" s="3">
-        <v>-751400</v>
+        <v>-766800</v>
       </c>
       <c r="G23" s="3">
-        <v>-191100</v>
+        <v>-195000</v>
       </c>
       <c r="H23" s="3">
-        <v>-294300</v>
+        <v>-300400</v>
       </c>
       <c r="I23" s="3">
-        <v>-494100</v>
+        <v>-504200</v>
       </c>
       <c r="J23" s="3">
-        <v>-494300</v>
+        <v>-504500</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1104,23 +1139,23 @@
         <v>1900</v>
       </c>
       <c r="F24" s="3">
-        <v>106300</v>
+        <v>108500</v>
       </c>
       <c r="G24" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="H24" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="I24" s="3">
-        <v>-29900</v>
+        <v>-30500</v>
       </c>
       <c r="J24" s="3">
-        <v>-19400</v>
+        <v>-19800</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-501800</v>
+        <v>-512100</v>
       </c>
       <c r="E26" s="3">
-        <v>-305600</v>
+        <v>-311900</v>
       </c>
       <c r="F26" s="3">
-        <v>-857700</v>
+        <v>-875300</v>
       </c>
       <c r="G26" s="3">
-        <v>-204100</v>
+        <v>-208300</v>
       </c>
       <c r="H26" s="3">
-        <v>-298800</v>
+        <v>-305000</v>
       </c>
       <c r="I26" s="3">
-        <v>-464200</v>
+        <v>-473700</v>
       </c>
       <c r="J26" s="3">
-        <v>-474900</v>
+        <v>-484700</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-482500</v>
+        <v>-492400</v>
       </c>
       <c r="E27" s="3">
-        <v>-305100</v>
+        <v>-311300</v>
       </c>
       <c r="F27" s="3">
-        <v>-814500</v>
+        <v>-831200</v>
       </c>
       <c r="G27" s="3">
-        <v>-189000</v>
+        <v>-192900</v>
       </c>
       <c r="H27" s="3">
-        <v>-282800</v>
+        <v>-288600</v>
       </c>
       <c r="I27" s="3">
-        <v>-445700</v>
+        <v>-454800</v>
       </c>
       <c r="J27" s="3">
-        <v>-466700</v>
+        <v>-476200</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-22800</v>
+        <v>-23200</v>
       </c>
       <c r="E32" s="3">
-        <v>-37700</v>
+        <v>-38500</v>
       </c>
       <c r="F32" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="G32" s="3">
-        <v>12000</v>
+        <v>12300</v>
       </c>
       <c r="H32" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="I32" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="J32" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-482500</v>
+        <v>-492400</v>
       </c>
       <c r="E33" s="3">
-        <v>-305100</v>
+        <v>-311300</v>
       </c>
       <c r="F33" s="3">
-        <v>-814500</v>
+        <v>-831200</v>
       </c>
       <c r="G33" s="3">
-        <v>-189000</v>
+        <v>-192900</v>
       </c>
       <c r="H33" s="3">
-        <v>-282800</v>
+        <v>-288600</v>
       </c>
       <c r="I33" s="3">
-        <v>-445700</v>
+        <v>-454800</v>
       </c>
       <c r="J33" s="3">
-        <v>-466700</v>
+        <v>-476200</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-482500</v>
+        <v>-492400</v>
       </c>
       <c r="E35" s="3">
-        <v>-305100</v>
+        <v>-311300</v>
       </c>
       <c r="F35" s="3">
-        <v>-814500</v>
+        <v>-831200</v>
       </c>
       <c r="G35" s="3">
-        <v>-189000</v>
+        <v>-192900</v>
       </c>
       <c r="H35" s="3">
-        <v>-282800</v>
+        <v>-288600</v>
       </c>
       <c r="I35" s="3">
-        <v>-445700</v>
+        <v>-454800</v>
       </c>
       <c r="J35" s="3">
-        <v>-466700</v>
+        <v>-476200</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1475,39 +1510,39 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>55000</v>
+        <v>56100</v>
       </c>
       <c r="E41" s="3">
-        <v>73700</v>
+        <v>75200</v>
       </c>
       <c r="F41" s="3">
-        <v>230900</v>
+        <v>235600</v>
       </c>
       <c r="G41" s="3">
-        <v>155500</v>
+        <v>158700</v>
       </c>
       <c r="H41" s="3">
-        <v>160800</v>
+        <v>164100</v>
       </c>
       <c r="I41" s="3">
-        <v>443800</v>
+        <v>452900</v>
       </c>
       <c r="J41" s="3">
-        <v>608000</v>
+        <v>620500</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1529,132 +1564,132 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>550300</v>
+        <v>561600</v>
       </c>
       <c r="E43" s="3">
-        <v>546400</v>
+        <v>557600</v>
       </c>
       <c r="F43" s="3">
-        <v>1100600</v>
+        <v>1123100</v>
       </c>
       <c r="G43" s="3">
-        <v>754700</v>
+        <v>770200</v>
       </c>
       <c r="H43" s="3">
-        <v>791500</v>
+        <v>807700</v>
       </c>
       <c r="I43" s="3">
-        <v>1254200</v>
+        <v>1279900</v>
       </c>
       <c r="J43" s="3">
-        <v>505800</v>
+        <v>516100</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>164800</v>
+        <v>168200</v>
       </c>
       <c r="E44" s="3">
-        <v>191200</v>
+        <v>195100</v>
       </c>
       <c r="F44" s="3">
-        <v>431700</v>
+        <v>440600</v>
       </c>
       <c r="G44" s="3">
-        <v>305300</v>
+        <v>311500</v>
       </c>
       <c r="H44" s="3">
-        <v>314800</v>
+        <v>321300</v>
       </c>
       <c r="I44" s="3">
-        <v>734000</v>
+        <v>749000</v>
       </c>
       <c r="J44" s="3">
-        <v>388400</v>
+        <v>396400</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>150700</v>
+        <v>153800</v>
       </c>
       <c r="E45" s="3">
-        <v>152900</v>
+        <v>156000</v>
       </c>
       <c r="F45" s="3">
-        <v>438500</v>
+        <v>447500</v>
       </c>
       <c r="G45" s="3">
-        <v>431500</v>
+        <v>440300</v>
       </c>
       <c r="H45" s="3">
-        <v>384500</v>
+        <v>392300</v>
       </c>
       <c r="I45" s="3">
-        <v>402700</v>
+        <v>411000</v>
       </c>
       <c r="J45" s="3">
-        <v>350300</v>
+        <v>357500</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>926300</v>
+        <v>945200</v>
       </c>
       <c r="E46" s="3">
-        <v>964200</v>
+        <v>983900</v>
       </c>
       <c r="F46" s="3">
-        <v>1222100</v>
+        <v>1247100</v>
       </c>
       <c r="G46" s="3">
-        <v>1646900</v>
+        <v>1680600</v>
       </c>
       <c r="H46" s="3">
-        <v>1651600</v>
+        <v>1685400</v>
       </c>
       <c r="I46" s="3">
-        <v>1616100</v>
+        <v>1649300</v>
       </c>
       <c r="J46" s="3">
-        <v>1852500</v>
+        <v>1890500</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>37300</v>
+        <v>38100</v>
       </c>
       <c r="E47" s="3">
-        <v>61500</v>
+        <v>62700</v>
       </c>
       <c r="F47" s="3">
-        <v>78300</v>
+        <v>79900</v>
       </c>
       <c r="G47" s="3">
-        <v>61600</v>
+        <v>62800</v>
       </c>
       <c r="H47" s="3">
-        <v>31500</v>
+        <v>32100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>35</v>
@@ -1664,61 +1699,61 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>390900</v>
+        <v>398900</v>
       </c>
       <c r="E48" s="3">
-        <v>709600</v>
+        <v>724100</v>
       </c>
       <c r="F48" s="3">
-        <v>1991400</v>
+        <v>2032200</v>
       </c>
       <c r="G48" s="3">
-        <v>1761300</v>
+        <v>1797400</v>
       </c>
       <c r="H48" s="3">
-        <v>1909300</v>
+        <v>1948400</v>
       </c>
       <c r="I48" s="3">
-        <v>3844600</v>
+        <v>3923400</v>
       </c>
       <c r="J48" s="3">
-        <v>1801800</v>
+        <v>1838700</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>65700</v>
+        <v>67000</v>
       </c>
       <c r="E49" s="3">
-        <v>67000</v>
+        <v>68400</v>
       </c>
       <c r="F49" s="3">
-        <v>76900</v>
+        <v>78400</v>
       </c>
       <c r="G49" s="3">
-        <v>96300</v>
+        <v>98300</v>
       </c>
       <c r="H49" s="3">
-        <v>110800</v>
+        <v>113100</v>
       </c>
       <c r="I49" s="3">
-        <v>121600</v>
+        <v>124000</v>
       </c>
       <c r="J49" s="3">
-        <v>92100</v>
+        <v>94000</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>84000</v>
+        <v>85700</v>
       </c>
       <c r="E52" s="3">
-        <v>161100</v>
+        <v>164400</v>
       </c>
       <c r="F52" s="3">
-        <v>217500</v>
+        <v>222000</v>
       </c>
       <c r="G52" s="3">
-        <v>376400</v>
+        <v>384100</v>
       </c>
       <c r="H52" s="3">
-        <v>424200</v>
+        <v>432900</v>
       </c>
       <c r="I52" s="3">
-        <v>298100</v>
+        <v>304200</v>
       </c>
       <c r="J52" s="3">
-        <v>246800</v>
+        <v>251900</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1504200</v>
+        <v>1535000</v>
       </c>
       <c r="E54" s="3">
-        <v>1963300</v>
+        <v>2003500</v>
       </c>
       <c r="F54" s="3">
-        <v>2565400</v>
+        <v>2618000</v>
       </c>
       <c r="G54" s="3">
-        <v>3942400</v>
+        <v>4023200</v>
       </c>
       <c r="H54" s="3">
-        <v>3992000</v>
+        <v>4073800</v>
       </c>
       <c r="I54" s="3">
-        <v>3948900</v>
+        <v>4029900</v>
       </c>
       <c r="J54" s="3">
-        <v>3996900</v>
+        <v>4078800</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>383300</v>
+        <v>391100</v>
       </c>
       <c r="E57" s="3">
-        <v>416600</v>
+        <v>425200</v>
       </c>
       <c r="F57" s="3">
-        <v>654000</v>
+        <v>667400</v>
       </c>
       <c r="G57" s="3">
-        <v>903500</v>
+        <v>922000</v>
       </c>
       <c r="H57" s="3">
-        <v>886800</v>
+        <v>904900</v>
       </c>
       <c r="I57" s="3">
-        <v>586600</v>
+        <v>598700</v>
       </c>
       <c r="J57" s="3">
-        <v>468300</v>
+        <v>477900</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1529400</v>
+        <v>1560800</v>
       </c>
       <c r="E58" s="3">
-        <v>2628700</v>
+        <v>2682500</v>
       </c>
       <c r="F58" s="3">
-        <v>1337800</v>
+        <v>1365200</v>
       </c>
       <c r="G58" s="3">
-        <v>1481000</v>
+        <v>1511400</v>
       </c>
       <c r="H58" s="3">
-        <v>1960500</v>
+        <v>2000700</v>
       </c>
       <c r="I58" s="3">
-        <v>1094500</v>
+        <v>1116900</v>
       </c>
       <c r="J58" s="3">
-        <v>1216400</v>
+        <v>1241400</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>419400</v>
+        <v>428000</v>
       </c>
       <c r="E59" s="3">
-        <v>315800</v>
+        <v>322300</v>
       </c>
       <c r="F59" s="3">
-        <v>567000</v>
+        <v>578600</v>
       </c>
       <c r="G59" s="3">
-        <v>244400</v>
+        <v>249400</v>
       </c>
       <c r="H59" s="3">
-        <v>209400</v>
+        <v>213700</v>
       </c>
       <c r="I59" s="3">
-        <v>370600</v>
+        <v>378200</v>
       </c>
       <c r="J59" s="3">
-        <v>198600</v>
+        <v>202600</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2332100</v>
+        <v>2379900</v>
       </c>
       <c r="E60" s="3">
-        <v>2050100</v>
+        <v>2092100</v>
       </c>
       <c r="F60" s="3">
-        <v>2277500</v>
+        <v>2324200</v>
       </c>
       <c r="G60" s="3">
-        <v>2628900</v>
+        <v>2682800</v>
       </c>
       <c r="H60" s="3">
-        <v>2080000</v>
+        <v>2122600</v>
       </c>
       <c r="I60" s="3">
-        <v>1882000</v>
+        <v>1920600</v>
       </c>
       <c r="J60" s="3">
-        <v>1883300</v>
+        <v>1921900</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>167200</v>
+        <v>170600</v>
       </c>
       <c r="E61" s="3">
-        <v>407500</v>
+        <v>415800</v>
       </c>
       <c r="F61" s="3">
-        <v>393500</v>
+        <v>401600</v>
       </c>
       <c r="G61" s="3">
-        <v>708000</v>
+        <v>722500</v>
       </c>
       <c r="H61" s="3">
-        <v>1207800</v>
+        <v>1232500</v>
       </c>
       <c r="I61" s="3">
-        <v>1161700</v>
+        <v>1185600</v>
       </c>
       <c r="J61" s="3">
-        <v>852000</v>
+        <v>869400</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>530800</v>
+        <v>541700</v>
       </c>
       <c r="E62" s="3">
-        <v>552900</v>
+        <v>564300</v>
       </c>
       <c r="F62" s="3">
-        <v>1012500</v>
+        <v>1033300</v>
       </c>
       <c r="G62" s="3">
-        <v>416200</v>
+        <v>424700</v>
       </c>
       <c r="H62" s="3">
-        <v>394800</v>
+        <v>402900</v>
       </c>
       <c r="I62" s="3">
-        <v>415800</v>
+        <v>424300</v>
       </c>
       <c r="J62" s="3">
-        <v>235900</v>
+        <v>240700</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3174100</v>
+        <v>3239100</v>
       </c>
       <c r="E66" s="3">
-        <v>3177400</v>
+        <v>3242500</v>
       </c>
       <c r="F66" s="3">
-        <v>3429200</v>
+        <v>3499500</v>
       </c>
       <c r="G66" s="3">
-        <v>3974000</v>
+        <v>4055400</v>
       </c>
       <c r="H66" s="3">
-        <v>3918100</v>
+        <v>3998400</v>
       </c>
       <c r="I66" s="3">
-        <v>3604300</v>
+        <v>3678200</v>
       </c>
       <c r="J66" s="3">
-        <v>3246300</v>
+        <v>3312800</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2726300</v>
+        <v>-2782200</v>
       </c>
       <c r="E72" s="3">
-        <v>-2243800</v>
+        <v>-2289700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1927400</v>
+        <v>-1966900</v>
       </c>
       <c r="G72" s="3">
-        <v>-1112600</v>
+        <v>-1135400</v>
       </c>
       <c r="H72" s="3">
-        <v>-923600</v>
+        <v>-942500</v>
       </c>
       <c r="I72" s="3">
-        <v>-640800</v>
+        <v>-654000</v>
       </c>
       <c r="J72" s="3">
-        <v>-195200</v>
+        <v>-199200</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1669900</v>
+        <v>-1704100</v>
       </c>
       <c r="E76" s="3">
-        <v>-1214100</v>
+        <v>-1239000</v>
       </c>
       <c r="F76" s="3">
-        <v>-863800</v>
+        <v>-881500</v>
       </c>
       <c r="G76" s="3">
-        <v>-31600</v>
+        <v>-32300</v>
       </c>
       <c r="H76" s="3">
-        <v>73900</v>
+        <v>75400</v>
       </c>
       <c r="I76" s="3">
-        <v>344600</v>
+        <v>351700</v>
       </c>
       <c r="J76" s="3">
-        <v>750600</v>
+        <v>766000</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-482500</v>
+        <v>-492400</v>
       </c>
       <c r="E81" s="3">
-        <v>-305100</v>
+        <v>-311300</v>
       </c>
       <c r="F81" s="3">
-        <v>-814500</v>
+        <v>-831200</v>
       </c>
       <c r="G81" s="3">
-        <v>-189000</v>
+        <v>-192900</v>
       </c>
       <c r="H81" s="3">
-        <v>-282800</v>
+        <v>-288600</v>
       </c>
       <c r="I81" s="3">
-        <v>-445700</v>
+        <v>-454800</v>
       </c>
       <c r="J81" s="3">
-        <v>-466700</v>
+        <v>-476200</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>72100</v>
+        <v>73600</v>
       </c>
       <c r="E83" s="3">
-        <v>130400</v>
+        <v>133100</v>
       </c>
       <c r="F83" s="3">
-        <v>172400</v>
+        <v>175900</v>
       </c>
       <c r="G83" s="3">
-        <v>205100</v>
+        <v>209300</v>
       </c>
       <c r="H83" s="3">
-        <v>188800</v>
+        <v>192700</v>
       </c>
       <c r="I83" s="3">
-        <v>174000</v>
+        <v>177500</v>
       </c>
       <c r="J83" s="3">
-        <v>139500</v>
+        <v>142400</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="E89" s="3">
-        <v>-60400</v>
+        <v>-61700</v>
       </c>
       <c r="F89" s="3">
-        <v>143200</v>
+        <v>146100</v>
       </c>
       <c r="G89" s="3">
-        <v>63100</v>
+        <v>64400</v>
       </c>
       <c r="H89" s="3">
-        <v>51300</v>
+        <v>52300</v>
       </c>
       <c r="I89" s="3">
-        <v>-299000</v>
+        <v>-305100</v>
       </c>
       <c r="J89" s="3">
-        <v>49600</v>
+        <v>50600</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-45200</v>
       </c>
-      <c r="E91" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-49800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-44300</v>
-      </c>
       <c r="H91" s="3">
-        <v>-175900</v>
+        <v>-176800</v>
       </c>
       <c r="I91" s="3">
-        <v>-304700</v>
+        <v>-289800</v>
       </c>
       <c r="J91" s="3">
-        <v>-729000</v>
+        <v>-718100</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-33900</v>
+        <v>-34600</v>
       </c>
       <c r="E94" s="3">
-        <v>-57900</v>
+        <v>-59100</v>
       </c>
       <c r="F94" s="3">
-        <v>205600</v>
+        <v>209800</v>
       </c>
       <c r="G94" s="3">
-        <v>-45900</v>
+        <v>-46900</v>
       </c>
       <c r="H94" s="3">
-        <v>-97500</v>
+        <v>-99500</v>
       </c>
       <c r="I94" s="3">
-        <v>-294900</v>
+        <v>-300900</v>
       </c>
       <c r="J94" s="3">
-        <v>-800500</v>
+        <v>-816900</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,7 +2862,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2854,7 +2889,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E100" s="3">
         <v>4300</v>
       </c>
-      <c r="E100" s="3">
-        <v>4200</v>
-      </c>
       <c r="F100" s="3">
-        <v>-327200</v>
+        <v>-333900</v>
       </c>
       <c r="G100" s="3">
-        <v>-26600</v>
+        <v>-27100</v>
       </c>
       <c r="H100" s="3">
-        <v>-91500</v>
+        <v>-93400</v>
       </c>
       <c r="I100" s="3">
-        <v>291400</v>
+        <v>297400</v>
       </c>
       <c r="J100" s="3">
-        <v>517000</v>
+        <v>527600</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="E101" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="F101" s="3">
         <v>3400</v>
       </c>
       <c r="G101" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H101" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I101" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="J101" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-18700</v>
+        <v>-19100</v>
       </c>
       <c r="E102" s="3">
-        <v>-106800</v>
+        <v>-108900</v>
       </c>
       <c r="F102" s="3">
-        <v>25000</v>
+        <v>25500</v>
       </c>
       <c r="G102" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="H102" s="3">
-        <v>-142400</v>
+        <v>-145400</v>
       </c>
       <c r="I102" s="3">
-        <v>-304800</v>
+        <v>-311100</v>
       </c>
       <c r="J102" s="3">
-        <v>-243600</v>
+        <v>-248600</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/YGEHY_YR_FIN.xlsx
+++ b/Financials/Yearly/YGEHY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE43827-9C25-43CF-9272-29715A1B6CB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="YGEHY" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1241300</v>
+        <v>639400</v>
       </c>
       <c r="E8" s="3">
-        <v>1243100</v>
+        <v>1200000</v>
       </c>
       <c r="F8" s="3">
-        <v>1479000</v>
+        <v>1201800</v>
       </c>
       <c r="G8" s="3">
-        <v>1918600</v>
+        <v>1429900</v>
       </c>
       <c r="H8" s="3">
-        <v>1991400</v>
+        <v>1854800</v>
       </c>
       <c r="I8" s="3">
-        <v>1690700</v>
+        <v>1925200</v>
       </c>
       <c r="J8" s="3">
+        <v>1634500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2178400</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1217800</v>
+        <v>691800</v>
       </c>
       <c r="E9" s="3">
-        <v>1087100</v>
+        <v>1177400</v>
       </c>
       <c r="F9" s="3">
-        <v>1391800</v>
+        <v>1051000</v>
       </c>
       <c r="G9" s="3">
-        <v>3172700</v>
+        <v>1345600</v>
       </c>
       <c r="H9" s="3">
-        <v>1846100</v>
+        <v>3067400</v>
       </c>
       <c r="I9" s="3">
-        <v>1745400</v>
+        <v>1784800</v>
       </c>
       <c r="J9" s="3">
+        <v>1687400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1941200</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23400</v>
+        <v>-52400</v>
       </c>
       <c r="E10" s="3">
-        <v>156000</v>
+        <v>22600</v>
       </c>
       <c r="F10" s="3">
-        <v>87200</v>
+        <v>150800</v>
       </c>
       <c r="G10" s="3">
-        <v>-1254200</v>
+        <v>84300</v>
       </c>
       <c r="H10" s="3">
-        <v>145200</v>
+        <v>-1212500</v>
       </c>
       <c r="I10" s="3">
-        <v>-54700</v>
+        <v>140400</v>
       </c>
       <c r="J10" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="K10" s="3">
         <v>237200</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19600</v>
+        <v>13700</v>
       </c>
       <c r="E12" s="3">
-        <v>20100</v>
+        <v>18900</v>
       </c>
       <c r="F12" s="3">
-        <v>55900</v>
+        <v>19500</v>
       </c>
       <c r="G12" s="3">
-        <v>80700</v>
+        <v>54000</v>
       </c>
       <c r="H12" s="3">
-        <v>39200</v>
+        <v>78000</v>
       </c>
       <c r="I12" s="3">
-        <v>23400</v>
+        <v>37900</v>
       </c>
       <c r="J12" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K12" s="3">
         <v>37200</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>303100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>189600</v>
+        <v>293000</v>
       </c>
       <c r="F14" s="3">
-        <v>564600</v>
+        <v>183300</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>545800</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>29800</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K14" s="3">
         <v>370500</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>5300</v>
+        <v>2500</v>
       </c>
       <c r="E15" s="3">
-        <v>7200</v>
+        <v>5100</v>
       </c>
       <c r="F15" s="3">
-        <v>13100</v>
+        <v>7000</v>
       </c>
       <c r="G15" s="3">
-        <v>14300</v>
+        <v>12700</v>
       </c>
       <c r="H15" s="3">
-        <v>13400</v>
+        <v>13800</v>
       </c>
       <c r="I15" s="3">
-        <v>19900</v>
+        <v>13000</v>
       </c>
       <c r="J15" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K15" s="3">
         <v>18100</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1678000</v>
+        <v>789000</v>
       </c>
       <c r="E17" s="3">
-        <v>1493100</v>
+        <v>1622300</v>
       </c>
       <c r="F17" s="3">
-        <v>2106500</v>
+        <v>1443500</v>
       </c>
       <c r="G17" s="3">
-        <v>1950500</v>
+        <v>2036500</v>
       </c>
       <c r="H17" s="3">
-        <v>2157400</v>
+        <v>1885700</v>
       </c>
       <c r="I17" s="3">
-        <v>2065200</v>
+        <v>2085700</v>
       </c>
       <c r="J17" s="3">
+        <v>1996600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2570600</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-436800</v>
+        <v>-149700</v>
       </c>
       <c r="E18" s="3">
-        <v>-250100</v>
+        <v>-422200</v>
       </c>
       <c r="F18" s="3">
-        <v>-627500</v>
+        <v>-241700</v>
       </c>
       <c r="G18" s="3">
-        <v>-31900</v>
+        <v>-606600</v>
       </c>
       <c r="H18" s="3">
-        <v>-166000</v>
+        <v>-30900</v>
       </c>
       <c r="I18" s="3">
-        <v>-374500</v>
+        <v>-160500</v>
       </c>
       <c r="J18" s="3">
+        <v>-362000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-392200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>23200</v>
+        <v>6200</v>
       </c>
       <c r="E20" s="3">
-        <v>38500</v>
+        <v>22400</v>
       </c>
       <c r="F20" s="3">
-        <v>5700</v>
+        <v>37200</v>
       </c>
       <c r="G20" s="3">
-        <v>-12300</v>
+        <v>5500</v>
       </c>
       <c r="H20" s="3">
-        <v>9800</v>
+        <v>-11900</v>
       </c>
       <c r="I20" s="3">
-        <v>3400</v>
+        <v>9500</v>
       </c>
       <c r="J20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-19200</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-339800</v>
+        <v>-100300</v>
       </c>
       <c r="E21" s="3">
-        <v>-78200</v>
+        <v>-328700</v>
       </c>
       <c r="F21" s="3">
-        <v>-445600</v>
+        <v>-75900</v>
       </c>
       <c r="G21" s="3">
-        <v>165400</v>
+        <v>-431100</v>
       </c>
       <c r="H21" s="3">
-        <v>36800</v>
+        <v>159500</v>
       </c>
       <c r="I21" s="3">
-        <v>-193300</v>
+        <v>35200</v>
       </c>
       <c r="J21" s="3">
+        <v>-187200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-268800</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>98500</v>
+        <v>94100</v>
       </c>
       <c r="E22" s="3">
-        <v>98400</v>
+        <v>95200</v>
       </c>
       <c r="F22" s="3">
-        <v>145000</v>
+        <v>95200</v>
       </c>
       <c r="G22" s="3">
-        <v>150800</v>
+        <v>140200</v>
       </c>
       <c r="H22" s="3">
-        <v>144200</v>
+        <v>145800</v>
       </c>
       <c r="I22" s="3">
-        <v>133100</v>
+        <v>139400</v>
       </c>
       <c r="J22" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K22" s="3">
         <v>93000</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-512000</v>
+        <v>-237500</v>
       </c>
       <c r="E23" s="3">
-        <v>-310000</v>
+        <v>-495000</v>
       </c>
       <c r="F23" s="3">
-        <v>-766800</v>
+        <v>-299700</v>
       </c>
       <c r="G23" s="3">
-        <v>-195000</v>
+        <v>-741300</v>
       </c>
       <c r="H23" s="3">
-        <v>-300400</v>
+        <v>-188500</v>
       </c>
       <c r="I23" s="3">
-        <v>-504200</v>
+        <v>-290400</v>
       </c>
       <c r="J23" s="3">
+        <v>-487500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-504500</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
-        <v>108500</v>
-      </c>
       <c r="G24" s="3">
-        <v>13300</v>
+        <v>104900</v>
       </c>
       <c r="H24" s="3">
-        <v>4600</v>
+        <v>12900</v>
       </c>
       <c r="I24" s="3">
-        <v>-30500</v>
+        <v>4500</v>
       </c>
       <c r="J24" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-19800</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-512100</v>
+        <v>-237400</v>
       </c>
       <c r="E26" s="3">
-        <v>-311900</v>
+        <v>-495100</v>
       </c>
       <c r="F26" s="3">
-        <v>-875300</v>
+        <v>-301500</v>
       </c>
       <c r="G26" s="3">
-        <v>-208300</v>
+        <v>-846200</v>
       </c>
       <c r="H26" s="3">
-        <v>-305000</v>
+        <v>-201400</v>
       </c>
       <c r="I26" s="3">
-        <v>-473700</v>
+        <v>-294800</v>
       </c>
       <c r="J26" s="3">
+        <v>-458000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-484700</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-492400</v>
+        <v>-231500</v>
       </c>
       <c r="E27" s="3">
-        <v>-311300</v>
+        <v>-476100</v>
       </c>
       <c r="F27" s="3">
-        <v>-831200</v>
+        <v>-301000</v>
       </c>
       <c r="G27" s="3">
-        <v>-192900</v>
+        <v>-803600</v>
       </c>
       <c r="H27" s="3">
-        <v>-288600</v>
+        <v>-186500</v>
       </c>
       <c r="I27" s="3">
-        <v>-454800</v>
+        <v>-279000</v>
       </c>
       <c r="J27" s="3">
+        <v>-439700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-476200</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-23200</v>
+        <v>-6200</v>
       </c>
       <c r="E32" s="3">
-        <v>-38500</v>
+        <v>-22400</v>
       </c>
       <c r="F32" s="3">
-        <v>-5700</v>
+        <v>-37200</v>
       </c>
       <c r="G32" s="3">
-        <v>12300</v>
+        <v>-5500</v>
       </c>
       <c r="H32" s="3">
-        <v>-9800</v>
+        <v>11900</v>
       </c>
       <c r="I32" s="3">
-        <v>-3400</v>
+        <v>-9500</v>
       </c>
       <c r="J32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K32" s="3">
         <v>19200</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-492400</v>
+        <v>-231500</v>
       </c>
       <c r="E33" s="3">
-        <v>-311300</v>
+        <v>-476100</v>
       </c>
       <c r="F33" s="3">
-        <v>-831200</v>
+        <v>-301000</v>
       </c>
       <c r="G33" s="3">
-        <v>-192900</v>
+        <v>-803600</v>
       </c>
       <c r="H33" s="3">
-        <v>-288600</v>
+        <v>-186500</v>
       </c>
       <c r="I33" s="3">
-        <v>-454800</v>
+        <v>-279000</v>
       </c>
       <c r="J33" s="3">
+        <v>-439700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-476200</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-492400</v>
+        <v>-231500</v>
       </c>
       <c r="E35" s="3">
-        <v>-311300</v>
+        <v>-476100</v>
       </c>
       <c r="F35" s="3">
-        <v>-831200</v>
+        <v>-301000</v>
       </c>
       <c r="G35" s="3">
-        <v>-192900</v>
+        <v>-803600</v>
       </c>
       <c r="H35" s="3">
-        <v>-288600</v>
+        <v>-186500</v>
       </c>
       <c r="I35" s="3">
-        <v>-454800</v>
+        <v>-279000</v>
       </c>
       <c r="J35" s="3">
+        <v>-439700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-476200</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1509,46 +1559,50 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>56100</v>
+        <v>41900</v>
       </c>
       <c r="E41" s="3">
-        <v>75200</v>
+        <v>54200</v>
       </c>
       <c r="F41" s="3">
-        <v>235600</v>
+        <v>72700</v>
       </c>
       <c r="G41" s="3">
-        <v>158700</v>
+        <v>227800</v>
       </c>
       <c r="H41" s="3">
-        <v>164100</v>
+        <v>153400</v>
       </c>
       <c r="I41" s="3">
-        <v>452900</v>
+        <v>158600</v>
       </c>
       <c r="J41" s="3">
+        <v>437900</v>
+      </c>
+      <c r="K41" s="3">
         <v>620500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>35</v>
+        <v>5300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>35</v>
@@ -1562,198 +1616,222 @@
       <c r="J42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>561600</v>
+        <v>395700</v>
       </c>
       <c r="E43" s="3">
-        <v>557600</v>
+        <v>542900</v>
       </c>
       <c r="F43" s="3">
-        <v>1123100</v>
+        <v>539000</v>
       </c>
       <c r="G43" s="3">
-        <v>770200</v>
+        <v>1085800</v>
       </c>
       <c r="H43" s="3">
-        <v>807700</v>
+        <v>744600</v>
       </c>
       <c r="I43" s="3">
-        <v>1279900</v>
+        <v>780900</v>
       </c>
       <c r="J43" s="3">
+        <v>1237400</v>
+      </c>
+      <c r="K43" s="3">
         <v>516100</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>168200</v>
+        <v>68700</v>
       </c>
       <c r="E44" s="3">
-        <v>195100</v>
+        <v>162600</v>
       </c>
       <c r="F44" s="3">
-        <v>440600</v>
+        <v>188700</v>
       </c>
       <c r="G44" s="3">
-        <v>311500</v>
+        <v>425900</v>
       </c>
       <c r="H44" s="3">
-        <v>321300</v>
+        <v>301200</v>
       </c>
       <c r="I44" s="3">
-        <v>749000</v>
+        <v>310600</v>
       </c>
       <c r="J44" s="3">
+        <v>724200</v>
+      </c>
+      <c r="K44" s="3">
         <v>396400</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>153800</v>
+        <v>123600</v>
       </c>
       <c r="E45" s="3">
-        <v>156000</v>
+        <v>148700</v>
       </c>
       <c r="F45" s="3">
-        <v>447500</v>
+        <v>150900</v>
       </c>
       <c r="G45" s="3">
-        <v>440300</v>
+        <v>432600</v>
       </c>
       <c r="H45" s="3">
-        <v>392300</v>
+        <v>425700</v>
       </c>
       <c r="I45" s="3">
-        <v>411000</v>
+        <v>379300</v>
       </c>
       <c r="J45" s="3">
+        <v>397300</v>
+      </c>
+      <c r="K45" s="3">
         <v>357500</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>945200</v>
+        <v>635200</v>
       </c>
       <c r="E46" s="3">
-        <v>983900</v>
+        <v>913800</v>
       </c>
       <c r="F46" s="3">
-        <v>1247100</v>
+        <v>951200</v>
       </c>
       <c r="G46" s="3">
-        <v>1680600</v>
+        <v>1205700</v>
       </c>
       <c r="H46" s="3">
-        <v>1685400</v>
+        <v>1624800</v>
       </c>
       <c r="I46" s="3">
-        <v>1649300</v>
+        <v>1629400</v>
       </c>
       <c r="J46" s="3">
+        <v>1594500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1890500</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>38100</v>
+        <v>34700</v>
       </c>
       <c r="E47" s="3">
-        <v>62700</v>
+        <v>36800</v>
       </c>
       <c r="F47" s="3">
-        <v>79900</v>
+        <v>60600</v>
       </c>
       <c r="G47" s="3">
-        <v>62800</v>
+        <v>77200</v>
       </c>
       <c r="H47" s="3">
-        <v>32100</v>
-      </c>
-      <c r="I47" s="3" t="s">
+        <v>60700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>31000</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3700</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>398900</v>
+        <v>399200</v>
       </c>
       <c r="E48" s="3">
-        <v>724100</v>
+        <v>385700</v>
       </c>
       <c r="F48" s="3">
-        <v>2032200</v>
+        <v>700100</v>
       </c>
       <c r="G48" s="3">
-        <v>1797400</v>
+        <v>1964700</v>
       </c>
       <c r="H48" s="3">
-        <v>1948400</v>
+        <v>1737700</v>
       </c>
       <c r="I48" s="3">
-        <v>3923400</v>
+        <v>1883700</v>
       </c>
       <c r="J48" s="3">
+        <v>3793100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1838700</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>67000</v>
+        <v>84900</v>
       </c>
       <c r="E49" s="3">
-        <v>68400</v>
+        <v>64800</v>
       </c>
       <c r="F49" s="3">
-        <v>78400</v>
+        <v>66100</v>
       </c>
       <c r="G49" s="3">
-        <v>98300</v>
+        <v>75800</v>
       </c>
       <c r="H49" s="3">
-        <v>113100</v>
+        <v>95000</v>
       </c>
       <c r="I49" s="3">
-        <v>124000</v>
+        <v>109300</v>
       </c>
       <c r="J49" s="3">
+        <v>119900</v>
+      </c>
+      <c r="K49" s="3">
         <v>94000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>85700</v>
+        <v>81000</v>
       </c>
       <c r="E52" s="3">
-        <v>164400</v>
+        <v>82900</v>
       </c>
       <c r="F52" s="3">
-        <v>222000</v>
+        <v>158900</v>
       </c>
       <c r="G52" s="3">
-        <v>384100</v>
+        <v>214600</v>
       </c>
       <c r="H52" s="3">
-        <v>432900</v>
+        <v>371300</v>
       </c>
       <c r="I52" s="3">
-        <v>304200</v>
+        <v>418500</v>
       </c>
       <c r="J52" s="3">
+        <v>294100</v>
+      </c>
+      <c r="K52" s="3">
         <v>251900</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1535000</v>
+        <v>1235100</v>
       </c>
       <c r="E54" s="3">
-        <v>2003500</v>
+        <v>1484000</v>
       </c>
       <c r="F54" s="3">
-        <v>2618000</v>
+        <v>1937000</v>
       </c>
       <c r="G54" s="3">
-        <v>4023200</v>
+        <v>2531000</v>
       </c>
       <c r="H54" s="3">
-        <v>4073800</v>
+        <v>3889500</v>
       </c>
       <c r="I54" s="3">
-        <v>4029900</v>
+        <v>3938500</v>
       </c>
       <c r="J54" s="3">
+        <v>3896000</v>
+      </c>
+      <c r="K54" s="3">
         <v>4078800</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>391100</v>
+        <v>327200</v>
       </c>
       <c r="E57" s="3">
-        <v>425200</v>
+        <v>378100</v>
       </c>
       <c r="F57" s="3">
-        <v>667400</v>
+        <v>411100</v>
       </c>
       <c r="G57" s="3">
-        <v>922000</v>
+        <v>645200</v>
       </c>
       <c r="H57" s="3">
-        <v>904900</v>
+        <v>891400</v>
       </c>
       <c r="I57" s="3">
-        <v>598700</v>
+        <v>874900</v>
       </c>
       <c r="J57" s="3">
+        <v>578800</v>
+      </c>
+      <c r="K57" s="3">
         <v>477900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1560800</v>
+        <v>1538900</v>
       </c>
       <c r="E58" s="3">
-        <v>2682500</v>
+        <v>1508900</v>
       </c>
       <c r="F58" s="3">
-        <v>1365200</v>
+        <v>2593400</v>
       </c>
       <c r="G58" s="3">
-        <v>1511400</v>
+        <v>1319900</v>
       </c>
       <c r="H58" s="3">
-        <v>2000700</v>
+        <v>1461200</v>
       </c>
       <c r="I58" s="3">
-        <v>1116900</v>
+        <v>1934200</v>
       </c>
       <c r="J58" s="3">
+        <v>1079800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1241400</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>428000</v>
+        <v>471000</v>
       </c>
       <c r="E59" s="3">
-        <v>322300</v>
+        <v>413800</v>
       </c>
       <c r="F59" s="3">
-        <v>578600</v>
+        <v>311600</v>
       </c>
       <c r="G59" s="3">
-        <v>249400</v>
+        <v>559400</v>
       </c>
       <c r="H59" s="3">
-        <v>213700</v>
+        <v>241100</v>
       </c>
       <c r="I59" s="3">
-        <v>378200</v>
+        <v>206600</v>
       </c>
       <c r="J59" s="3">
+        <v>365600</v>
+      </c>
+      <c r="K59" s="3">
         <v>202600</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2379900</v>
+        <v>2337100</v>
       </c>
       <c r="E60" s="3">
-        <v>2092100</v>
+        <v>2300800</v>
       </c>
       <c r="F60" s="3">
-        <v>2324200</v>
+        <v>2022600</v>
       </c>
       <c r="G60" s="3">
-        <v>2682800</v>
+        <v>2247000</v>
       </c>
       <c r="H60" s="3">
-        <v>2122600</v>
+        <v>2593600</v>
       </c>
       <c r="I60" s="3">
-        <v>1920600</v>
+        <v>2052100</v>
       </c>
       <c r="J60" s="3">
+        <v>1856800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1921900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>170600</v>
+        <v>147500</v>
       </c>
       <c r="E61" s="3">
-        <v>415800</v>
+        <v>164900</v>
       </c>
       <c r="F61" s="3">
-        <v>401600</v>
+        <v>402000</v>
       </c>
       <c r="G61" s="3">
-        <v>722500</v>
+        <v>388200</v>
       </c>
       <c r="H61" s="3">
-        <v>1232500</v>
+        <v>698500</v>
       </c>
       <c r="I61" s="3">
-        <v>1185600</v>
+        <v>1191600</v>
       </c>
       <c r="J61" s="3">
+        <v>1146200</v>
+      </c>
+      <c r="K61" s="3">
         <v>869400</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>541700</v>
+        <v>517700</v>
       </c>
       <c r="E62" s="3">
-        <v>564300</v>
+        <v>523700</v>
       </c>
       <c r="F62" s="3">
-        <v>1033300</v>
+        <v>545500</v>
       </c>
       <c r="G62" s="3">
-        <v>424700</v>
+        <v>998900</v>
       </c>
       <c r="H62" s="3">
-        <v>402900</v>
+        <v>410600</v>
       </c>
       <c r="I62" s="3">
-        <v>424300</v>
+        <v>389500</v>
       </c>
       <c r="J62" s="3">
+        <v>410200</v>
+      </c>
+      <c r="K62" s="3">
         <v>240700</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3239100</v>
+        <v>3144200</v>
       </c>
       <c r="E66" s="3">
-        <v>3242500</v>
+        <v>3131500</v>
       </c>
       <c r="F66" s="3">
-        <v>3499500</v>
+        <v>3134800</v>
       </c>
       <c r="G66" s="3">
-        <v>4055400</v>
+        <v>3383300</v>
       </c>
       <c r="H66" s="3">
-        <v>3998400</v>
+        <v>3920700</v>
       </c>
       <c r="I66" s="3">
-        <v>3678200</v>
+        <v>3865600</v>
       </c>
       <c r="J66" s="3">
+        <v>3556000</v>
+      </c>
+      <c r="K66" s="3">
         <v>3312800</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2782200</v>
+        <v>-2917300</v>
       </c>
       <c r="E72" s="3">
-        <v>-2289700</v>
+        <v>-2689700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1966900</v>
+        <v>-2213700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1135400</v>
+        <v>-1901500</v>
       </c>
       <c r="H72" s="3">
-        <v>-942500</v>
+        <v>-1097700</v>
       </c>
       <c r="I72" s="3">
-        <v>-654000</v>
+        <v>-911200</v>
       </c>
       <c r="J72" s="3">
+        <v>-632200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-199200</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1704100</v>
+        <v>-1909100</v>
       </c>
       <c r="E76" s="3">
-        <v>-1239000</v>
+        <v>-1647500</v>
       </c>
       <c r="F76" s="3">
-        <v>-881500</v>
+        <v>-1197800</v>
       </c>
       <c r="G76" s="3">
-        <v>-32300</v>
+        <v>-852200</v>
       </c>
       <c r="H76" s="3">
-        <v>75400</v>
+        <v>-31200</v>
       </c>
       <c r="I76" s="3">
-        <v>351700</v>
+        <v>72900</v>
       </c>
       <c r="J76" s="3">
+        <v>340000</v>
+      </c>
+      <c r="K76" s="3">
         <v>766000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-492400</v>
+        <v>-231500</v>
       </c>
       <c r="E81" s="3">
-        <v>-311300</v>
+        <v>-476100</v>
       </c>
       <c r="F81" s="3">
-        <v>-831200</v>
+        <v>-301000</v>
       </c>
       <c r="G81" s="3">
-        <v>-192900</v>
+        <v>-803600</v>
       </c>
       <c r="H81" s="3">
-        <v>-288600</v>
+        <v>-186500</v>
       </c>
       <c r="I81" s="3">
-        <v>-454800</v>
+        <v>-279000</v>
       </c>
       <c r="J81" s="3">
+        <v>-439700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-476200</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>73600</v>
+        <v>43100</v>
       </c>
       <c r="E83" s="3">
-        <v>133100</v>
+        <v>71100</v>
       </c>
       <c r="F83" s="3">
-        <v>175900</v>
+        <v>128700</v>
       </c>
       <c r="G83" s="3">
-        <v>209300</v>
+        <v>170100</v>
       </c>
       <c r="H83" s="3">
-        <v>192700</v>
+        <v>202300</v>
       </c>
       <c r="I83" s="3">
-        <v>177500</v>
+        <v>186300</v>
       </c>
       <c r="J83" s="3">
+        <v>171600</v>
+      </c>
+      <c r="K83" s="3">
         <v>142400</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="E89" s="3">
-        <v>-61700</v>
+        <v>13000</v>
       </c>
       <c r="F89" s="3">
-        <v>146100</v>
+        <v>-59600</v>
       </c>
       <c r="G89" s="3">
-        <v>64400</v>
+        <v>141300</v>
       </c>
       <c r="H89" s="3">
-        <v>52300</v>
+        <v>62300</v>
       </c>
       <c r="I89" s="3">
-        <v>-305100</v>
+        <v>50600</v>
       </c>
       <c r="J89" s="3">
+        <v>-295000</v>
+      </c>
+      <c r="K89" s="3">
         <v>50600</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-46200</v>
+        <v>-18300</v>
       </c>
       <c r="E91" s="3">
-        <v>-36500</v>
+        <v>-44600</v>
       </c>
       <c r="F91" s="3">
-        <v>-50100</v>
+        <v>-35300</v>
       </c>
       <c r="G91" s="3">
-        <v>-45200</v>
+        <v>-48500</v>
       </c>
       <c r="H91" s="3">
-        <v>-176800</v>
+        <v>-43700</v>
       </c>
       <c r="I91" s="3">
-        <v>-289800</v>
+        <v>-170900</v>
       </c>
       <c r="J91" s="3">
+        <v>-280200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-718100</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-34600</v>
+        <v>-15400</v>
       </c>
       <c r="E94" s="3">
-        <v>-59100</v>
+        <v>-33600</v>
       </c>
       <c r="F94" s="3">
-        <v>209800</v>
+        <v>-57100</v>
       </c>
       <c r="G94" s="3">
-        <v>-46900</v>
+        <v>202800</v>
       </c>
       <c r="H94" s="3">
-        <v>-99500</v>
+        <v>-45300</v>
       </c>
       <c r="I94" s="3">
-        <v>-300900</v>
+        <v>-96200</v>
       </c>
       <c r="J94" s="3">
+        <v>-290900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-816900</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,8 +3058,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2887,9 +3085,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4400</v>
+        <v>-20100</v>
       </c>
       <c r="E100" s="3">
-        <v>4300</v>
+        <v>3200</v>
       </c>
       <c r="F100" s="3">
-        <v>-333900</v>
+        <v>4200</v>
       </c>
       <c r="G100" s="3">
-        <v>-27100</v>
+        <v>-322800</v>
       </c>
       <c r="H100" s="3">
-        <v>-93400</v>
+        <v>-26200</v>
       </c>
       <c r="I100" s="3">
-        <v>297400</v>
+        <v>-90300</v>
       </c>
       <c r="J100" s="3">
+        <v>287500</v>
+      </c>
+      <c r="K100" s="3">
         <v>527600</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3900</v>
+        <v>3300</v>
       </c>
       <c r="E101" s="3">
-        <v>7500</v>
+        <v>-3700</v>
       </c>
       <c r="F101" s="3">
-        <v>3400</v>
+        <v>7200</v>
       </c>
       <c r="G101" s="3">
-        <v>4200</v>
+        <v>3300</v>
       </c>
       <c r="H101" s="3">
-        <v>-4700</v>
+        <v>4000</v>
       </c>
       <c r="I101" s="3">
-        <v>-2500</v>
+        <v>-4600</v>
       </c>
       <c r="J101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-9800</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19100</v>
+        <v>-16700</v>
       </c>
       <c r="E102" s="3">
-        <v>-108900</v>
+        <v>-21200</v>
       </c>
       <c r="F102" s="3">
-        <v>25500</v>
+        <v>-105300</v>
       </c>
       <c r="G102" s="3">
-        <v>-5400</v>
+        <v>24600</v>
       </c>
       <c r="H102" s="3">
-        <v>-145400</v>
+        <v>-5200</v>
       </c>
       <c r="I102" s="3">
-        <v>-311100</v>
+        <v>-140500</v>
       </c>
       <c r="J102" s="3">
+        <v>-300800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-248600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
